--- a/data/pilotfour_data.xlsx
+++ b/data/pilotfour_data.xlsx
@@ -123,418 +123,418 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>28.909545442950474</v>
+        <v>1.4526666730283408</v>
       </c>
       <c r="B2" s="0">
-        <v>10.666190488337577</v>
+        <v>0.53606128648689744</v>
       </c>
       <c r="C2" s="0">
-        <v>51.395541084682776</v>
+        <v>2.5813639510546444</v>
       </c>
       <c r="D2" s="0">
-        <v>36.427121138686459</v>
+        <v>1.8301845578816311</v>
       </c>
       <c r="E2" s="0">
-        <v>30.911688245431435</v>
+        <v>1.5532240310520349</v>
       </c>
       <c r="F2" s="0">
-        <v>0.78893936688447752</v>
+        <v>0.039651656840152025</v>
       </c>
       <c r="G2" s="0">
-        <v>24.66690475583124</v>
+        <v>1.2395517838444183</v>
       </c>
       <c r="H2" s="0">
-        <v>26.788225099390871</v>
+        <v>1.3461138851930812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>50.427835406179952</v>
+        <v>2.5328244034320506</v>
       </c>
       <c r="B3" s="0">
-        <v>2.4859956417322167</v>
+        <v>0.12494458980353008</v>
       </c>
       <c r="C3" s="0">
-        <v>59.456558390209381</v>
+        <v>2.985549195699666</v>
       </c>
       <c r="D3" s="0">
-        <v>25.82051942088836</v>
+        <v>1.2975034081164258</v>
       </c>
       <c r="E3" s="0">
-        <v>56.48670990922588</v>
+        <v>2.8366713027289143</v>
       </c>
       <c r="F3" s="0">
-        <v>14.484567106744919</v>
+        <v>0.72794728832785438</v>
       </c>
       <c r="G3" s="0">
-        <v>23.6991990773287</v>
+        <v>1.1909373025827767</v>
       </c>
       <c r="H3" s="0">
-        <v>22.426406871192938</v>
+        <v>1.1269936361971655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>17.454415587728448</v>
+        <v>0.87718088761351076</v>
       </c>
       <c r="B4" s="0">
-        <v>22.12132034355966</v>
+        <v>1.1116660048193414</v>
       </c>
       <c r="C4" s="0">
-        <v>40.245497757093744</v>
+        <v>2.02187713153547</v>
       </c>
       <c r="D4" s="0">
-        <v>7.696342007354076</v>
+        <v>0.38680808364688452</v>
       </c>
       <c r="E4" s="0">
-        <v>42.791082169365296</v>
+        <v>2.1496472934851343</v>
       </c>
       <c r="F4" s="0">
-        <v>14.908831175456839</v>
+        <v>0.74926702592279271</v>
       </c>
       <c r="G4" s="0">
-        <v>40.364675298172614</v>
+        <v>2.0278594519773612</v>
       </c>
       <c r="H4" s="0">
-        <v>17.45441558772842</v>
+        <v>0.87718088761350954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>39.396969619669903</v>
+        <v>1.9792825437116222</v>
       </c>
       <c r="B5" s="0">
-        <v>-5.9992857325063653</v>
+        <v>-0.3015180521670926</v>
       </c>
       <c r="C5" s="0">
-        <v>48.306515062620349</v>
+        <v>2.4264075897064226</v>
       </c>
       <c r="D5" s="0">
-        <v>48.425692603699247</v>
+        <v>2.4323866257839435</v>
       </c>
       <c r="E5" s="0">
-        <v>61.577878733769069</v>
+        <v>3.0918659655844052</v>
       </c>
       <c r="F5" s="0">
-        <v>31.335952314143356</v>
+        <v>1.5745314299299971</v>
       </c>
       <c r="G5" s="0">
-        <v>-16.60588745030455</v>
+        <v>-0.83454384235926582</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.9992857325063653</v>
+        <v>-0.3015180521670926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>39.091883092036767</v>
+        <v>1.9639672108144794</v>
       </c>
       <c r="B6" s="0">
-        <v>17.030151519016499</v>
+        <v>0.85586248348280514</v>
       </c>
       <c r="C6" s="0">
-        <v>35.697770542341374</v>
+        <v>1.7935644406067923</v>
       </c>
       <c r="D6" s="0">
-        <v>28.790367901871832</v>
+        <v>1.446680708356374</v>
       </c>
       <c r="E6" s="0">
-        <v>31.760216382855333</v>
+        <v>1.5958383931984215</v>
       </c>
       <c r="F6" s="0">
-        <v>5.8801081914276381</v>
+        <v>0.29552841642421901</v>
       </c>
       <c r="G6" s="0">
-        <v>20.84852813742387</v>
+        <v>1.0477188811696656</v>
       </c>
       <c r="H6" s="0">
-        <v>17.030151519016499</v>
+        <v>0.85586248348280514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>29.638896039295673</v>
+        <v>1.489299279568036</v>
       </c>
       <c r="B7" s="0">
-        <v>12.244069222106646</v>
+        <v>0.61535659376376317</v>
       </c>
       <c r="C7" s="0">
-        <v>49.698484809835008</v>
+        <v>2.4962381983359969</v>
       </c>
       <c r="D7" s="0">
-        <v>5.4558441227157175</v>
+        <v>0.27420566259403822</v>
       </c>
       <c r="E7" s="0">
-        <v>47.577164466275349</v>
+        <v>2.389815542164726</v>
       </c>
       <c r="F7" s="0">
-        <v>43.758787847868007</v>
+        <v>2.198213667267686</v>
       </c>
       <c r="G7" s="0">
-        <v>53.397683887163453</v>
+        <v>2.6817784074355839</v>
       </c>
       <c r="H7" s="0">
-        <v>8.4256926036992468</v>
+        <v>0.42346301364676298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>30.606601717798213</v>
+        <v>1.5379017031646336</v>
       </c>
       <c r="B8" s="0">
-        <v>28.06101730552669</v>
+        <v>1.4100467226094764</v>
       </c>
       <c r="C8" s="0">
-        <v>35.154328932550698</v>
+        <v>1.7662777120022937</v>
       </c>
       <c r="D8" s="0">
-        <v>1.3323809766751538</v>
+        <v>0.066964712199350268</v>
       </c>
       <c r="E8" s="0">
-        <v>50.852099474891844</v>
+        <v>2.5541056915401312</v>
       </c>
       <c r="F8" s="0">
-        <v>36.122034611053294</v>
+        <v>1.8148665845963539</v>
       </c>
       <c r="G8" s="0">
-        <v>45.880108191427666</v>
+        <v>2.3046655007230963</v>
       </c>
       <c r="H8" s="0">
-        <v>6.4235498012182859</v>
+        <v>0.3228407000797433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>11.81980515339464</v>
+        <v>0.59403568785645511</v>
       </c>
       <c r="B9" s="0">
-        <v>-3.4537013202347282</v>
+        <v>-0.1735806174969669</v>
       </c>
       <c r="C9" s="0">
-        <v>41.518289963229535</v>
+        <v>2.0857648067535348</v>
       </c>
       <c r="D9" s="0">
-        <v>26.363961030678951</v>
+        <v>1.3248021864551183</v>
       </c>
       <c r="E9" s="0">
-        <v>46.728636328851564</v>
+        <v>2.347241818220855</v>
       </c>
       <c r="F9" s="0">
-        <v>43.639610306789194</v>
+        <v>2.1922326573648592</v>
       </c>
       <c r="G9" s="0">
-        <v>27.517575695736042</v>
+        <v>1.3827498638750058</v>
       </c>
       <c r="H9" s="0">
-        <v>1.6374675043083471</v>
+        <v>0.08229816891621243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>25.939696961967002</v>
+        <v>1.3034901210628727</v>
       </c>
       <c r="B10" s="0">
-        <v>14.908831175456868</v>
+        <v>0.74926702592279404</v>
       </c>
       <c r="C10" s="0">
-        <v>54.789653634378169</v>
+        <v>2.7515808763860332</v>
       </c>
       <c r="D10" s="0">
-        <v>12.244069222106617</v>
+        <v>0.61535659376376173</v>
       </c>
       <c r="E10" s="0">
-        <v>25.396255352176468</v>
+        <v>1.2761908816766627</v>
       </c>
       <c r="F10" s="0">
-        <v>28.790367901871832</v>
+        <v>1.446680708356374</v>
       </c>
       <c r="G10" s="0">
-        <v>19.151471862576159</v>
+        <v>0.96245201624166166</v>
       </c>
       <c r="H10" s="0">
-        <v>1.7566450453870743</v>
+        <v>0.088287953984853326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1.6374675043084039</v>
+        <v>0.082298168916215289</v>
       </c>
       <c r="B11" s="0">
-        <v>19.880822458921358</v>
+        <v>0.99909803896406468</v>
       </c>
       <c r="C11" s="0">
-        <v>37.394826817189085</v>
+        <v>1.8787699817249199</v>
       </c>
       <c r="D11" s="0">
-        <v>16.062445840513988</v>
+        <v>0.80723636951963063</v>
       </c>
       <c r="E11" s="0">
-        <v>51.819805153394725</v>
+        <v>2.6026436222162221</v>
       </c>
       <c r="F11" s="0">
-        <v>25.939696961966973</v>
+        <v>1.3034901210628711</v>
       </c>
       <c r="G11" s="0">
-        <v>22.002142802480989</v>
+        <v>1.1056784489078435</v>
       </c>
       <c r="H11" s="0">
-        <v>-12.787510831897208</v>
+        <v>-0.64266638102966778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>24.666904755831183</v>
+        <v>1.2395517838444154</v>
       </c>
       <c r="B12" s="0">
-        <v>36.546298679765272</v>
+        <v>1.8361682266929682</v>
       </c>
       <c r="C12" s="0">
-        <v>29.638896039295673</v>
+        <v>1.489299279568036</v>
       </c>
       <c r="D12" s="0">
-        <v>29.33380951166248</v>
+        <v>1.4739760482252939</v>
       </c>
       <c r="E12" s="0">
-        <v>45.336666581636905</v>
+        <v>2.277396068859129</v>
       </c>
       <c r="F12" s="0">
-        <v>37.819090885901034</v>
+        <v>1.9000700829211679</v>
       </c>
       <c r="G12" s="0">
-        <v>49.274220741123116</v>
+        <v>2.4749550223251826</v>
       </c>
       <c r="H12" s="0">
-        <v>22.54558441227158</v>
+        <v>1.1329811050658831</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>52.549155749739555</v>
+        <v>2.6392237339351285</v>
       </c>
       <c r="B13" s="0">
-        <v>19.456558390209466</v>
+        <v>0.97778110353925096</v>
       </c>
       <c r="C13" s="0">
-        <v>60.18590898655421</v>
+        <v>3.0221052975403109</v>
       </c>
       <c r="D13" s="0">
-        <v>-1.2132034355964265</v>
+        <v>-0.060974921323445792</v>
       </c>
       <c r="E13" s="0">
-        <v>53.092597359530487</v>
+        <v>2.6664783015014852</v>
       </c>
       <c r="F13" s="0">
-        <v>11.395541084682776</v>
+        <v>0.57271461742583329</v>
       </c>
       <c r="G13" s="0">
-        <v>22.850670939904859</v>
+        <v>1.148308511501182</v>
       </c>
       <c r="H13" s="0">
-        <v>-14.908831175456868</v>
+        <v>-0.74926702592279404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>28.909545442950474</v>
+        <v>1.4526666730283408</v>
       </c>
       <c r="B14" s="0">
-        <v>20.424264068711921</v>
+        <v>1.0264025852969063</v>
       </c>
       <c r="C14" s="0">
-        <v>46.728636328851508</v>
+        <v>2.3472418182208519</v>
       </c>
       <c r="D14" s="0">
-        <v>32.608744520279146</v>
+        <v>1.6384509893888335</v>
       </c>
       <c r="E14" s="0">
-        <v>39.396969619669903</v>
+        <v>1.9792825437116222</v>
       </c>
       <c r="F14" s="0">
-        <v>21.57787873376904</v>
+        <v>1.0843629555264971</v>
       </c>
       <c r="G14" s="0">
-        <v>24.66690475583124</v>
+        <v>1.2395517838444183</v>
       </c>
       <c r="H14" s="0">
-        <v>25.515432893255081</v>
+        <v>1.2821776949044448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>30.911688245431435</v>
+        <v>1.5532240310520349</v>
       </c>
       <c r="B15" s="0">
-        <v>5.8801081914276949</v>
+        <v>0.29552841642422184</v>
       </c>
       <c r="C15" s="0">
-        <v>56.062445840513988</v>
+        <v>2.8153998554543156</v>
       </c>
       <c r="D15" s="0">
-        <v>10.547012947258906</v>
+        <v>0.53007200660708864</v>
       </c>
       <c r="E15" s="0">
-        <v>33.576450198781743</v>
+        <v>1.6870463978009134</v>
       </c>
       <c r="F15" s="0">
-        <v>29.758073580374344</v>
+        <v>1.4952850155688471</v>
       </c>
       <c r="G15" s="0">
-        <v>47.8822509939084</v>
+        <v>2.4051221932082214</v>
       </c>
       <c r="H15" s="0">
-        <v>26.669047558312201</v>
+        <v>1.3401273777714358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>38.243354954612897</v>
+        <v>1.9213696587462878</v>
       </c>
       <c r="B16" s="0">
-        <v>16.18162338159263</v>
+        <v>0.81322497014191009</v>
       </c>
       <c r="C16" s="0">
-        <v>54.246212024587294</v>
+        <v>2.7243301202717753</v>
       </c>
       <c r="D16" s="0">
-        <v>13.211774900609186</v>
+        <v>0.66398688958899343</v>
       </c>
       <c r="E16" s="0">
-        <v>27.517575695736042</v>
+        <v>1.3827498638750058</v>
       </c>
       <c r="F16" s="0">
-        <v>39.091883092036795</v>
+        <v>1.963967210814481</v>
       </c>
       <c r="G16" s="0">
-        <v>46.304372260139615</v>
+        <v>2.325953980742363</v>
       </c>
       <c r="H16" s="0">
-        <v>-15.213917703090118</v>
+        <v>-0.76459783266545112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-13.211774900609186</v>
+        <v>-0.66398688958899343</v>
       </c>
       <c r="B17" s="0">
-        <v>10.122748878547014</v>
+        <v>0.50875047802585549</v>
       </c>
       <c r="C17" s="0">
-        <v>35.154328932550698</v>
+        <v>1.7662777120022937</v>
       </c>
       <c r="D17" s="0">
-        <v>12.363246763185344</v>
+        <v>0.62134569448377075</v>
       </c>
       <c r="E17" s="0">
-        <v>43.334523779156086</v>
+        <v>2.1769214548698268</v>
       </c>
       <c r="F17" s="0">
-        <v>33.033008588991066</v>
+        <v>1.6597566105537611</v>
       </c>
       <c r="G17" s="0">
-        <v>22.002142802480989</v>
+        <v>1.1056784489078435</v>
       </c>
       <c r="H17" s="0">
-        <v>-19.575735931288051</v>
+        <v>-0.98376914693708006</v>
       </c>
     </row>
   </sheetData>
